--- a/Cyber Threat Dictionary/Cyber Threat Dictionary Draft.xlsx
+++ b/Cyber Threat Dictionary/Cyber Threat Dictionary Draft.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Enterprise ATT&amp;CK (v11)" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Notepad" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="150">
   <si>
     <t xml:space="preserve">Reconnaissance</t>
   </si>
@@ -86,6 +86,12 @@
     <t xml:space="preserve">Antivirus/Antimalware</t>
   </si>
   <si>
+    <t xml:space="preserve">Account Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-factor Authentication</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gather Victim Host Information</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
     <t xml:space="preserve">Behavior Prevention on Endpoint</t>
   </si>
   <si>
+    <t xml:space="preserve">Network Segmentation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gather Victim Identity Information</t>
   </si>
   <si>
@@ -110,6 +119,9 @@
     <t xml:space="preserve">Code Signing</t>
   </si>
   <si>
+    <t xml:space="preserve">Operating System Configuration</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gather Victim Network Information</t>
   </si>
   <si>
@@ -122,6 +134,9 @@
     <t xml:space="preserve">Disable or Remove Feature or Program</t>
   </si>
   <si>
+    <t xml:space="preserve">Privileged Account Management</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gather Victim Org Information</t>
   </si>
   <si>
@@ -137,6 +152,9 @@
     <t xml:space="preserve">Execution Prevention</t>
   </si>
   <si>
+    <t xml:space="preserve">Active Directory</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phishing for Information</t>
   </si>
   <si>
@@ -146,7 +164,7 @@
     <t xml:space="preserve">File</t>
   </si>
   <si>
-    <t xml:space="preserve">Privileged Account Management</t>
+    <t xml:space="preserve">Command</t>
   </si>
   <si>
     <t xml:space="preserve">Search Closed Sources</t>
@@ -167,7 +185,7 @@
     <t xml:space="preserve">Process</t>
   </si>
   <si>
-    <t xml:space="preserve">Command</t>
+    <t xml:space="preserve">Group</t>
   </si>
   <si>
     <t xml:space="preserve">Search Open Websites/Domains</t>
@@ -182,39 +200,57 @@
     <t xml:space="preserve">Search Victim-Owned Websites</t>
   </si>
   <si>
-    <t xml:space="preserve">Network Segmentation</t>
+    <t xml:space="preserve">User Account</t>
   </si>
   <si>
     <t xml:space="preserve">Script</t>
   </si>
   <si>
+    <t xml:space="preserve">BITS Jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter Network Traffic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Container Administration Command</t>
   </si>
   <si>
     <t xml:space="preserve">Limit Access to Resource Over Network</t>
   </si>
   <si>
+    <t xml:space="preserve">User Account Management</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vulnerability Scanning</t>
   </si>
   <si>
-    <t xml:space="preserve">User Account Management</t>
-  </si>
-  <si>
     <t xml:space="preserve">External Remote Services</t>
   </si>
   <si>
+    <t xml:space="preserve">Service</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deploy Container</t>
   </si>
   <si>
     <t xml:space="preserve">Audit</t>
   </si>
   <si>
-    <t xml:space="preserve">Multi-factor Authentication</t>
+    <t xml:space="preserve">Boot or Logon Autostart Execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not easy to mitigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver</t>
   </si>
   <si>
     <t xml:space="preserve">Logon Session</t>
   </si>
   <si>
+    <t xml:space="preserve">Kernel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Container</t>
   </si>
   <si>
@@ -230,12 +266,24 @@
     <t xml:space="preserve">Exploitation for Client Execution</t>
   </si>
   <si>
+    <t xml:space="preserve">Windows Registry</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asset management systems</t>
   </si>
   <si>
+    <t xml:space="preserve">Boot or Logon Initialization Scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restrict File and Directory Permissions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Endpoint sensors</t>
   </si>
   <si>
+    <t xml:space="preserve">Restrict Registry Permissions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phishing</t>
   </si>
   <si>
@@ -254,6 +302,12 @@
     <t xml:space="preserve">User Training</t>
   </si>
   <si>
+    <t xml:space="preserve">Browser Extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit Software Installation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Replication Through Removable Media</t>
   </si>
   <si>
@@ -269,12 +323,15 @@
     <t xml:space="preserve">Scheduled Task/Job</t>
   </si>
   <si>
-    <t xml:space="preserve">Operating System Configuration</t>
+    <t xml:space="preserve">Compromise Client Software Binary</t>
   </si>
   <si>
     <t xml:space="preserve">Checksum</t>
   </si>
   <si>
+    <t xml:space="preserve">Create Account</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trusted Relationship</t>
   </si>
   <si>
@@ -293,154 +350,127 @@
     <t xml:space="preserve">Shared Modules</t>
   </si>
   <si>
+    <t xml:space="preserve">Create or Modify System Process</t>
+  </si>
+  <si>
     <t xml:space="preserve">Software Deployment Tools</t>
   </si>
   <si>
     <t xml:space="preserve">Active Directory Configuration</t>
   </si>
   <si>
-    <t xml:space="preserve">User Account</t>
-  </si>
-  <si>
     <t xml:space="preserve">Remote Data Storage</t>
   </si>
   <si>
     <t xml:space="preserve">System Services</t>
   </si>
   <si>
-    <t xml:space="preserve">Restrict File and Directory Permissions</t>
+    <t xml:space="preserve">Event Triggered Execution</t>
   </si>
   <si>
     <t xml:space="preserve">Command Execution</t>
   </si>
   <si>
-    <t xml:space="preserve">Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Registry</t>
+    <t xml:space="preserve">WMI</t>
   </si>
   <si>
     <t xml:space="preserve">User Execution</t>
   </si>
   <si>
+    <t xml:space="preserve">Hijack Execution Flow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Instance</t>
   </si>
   <si>
+    <t xml:space="preserve">Restrict Library Loading</t>
+  </si>
+  <si>
     <t xml:space="preserve">Windows Management Instrumentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Application Log </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application Log Content </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor for third-party application logging, messaging, and/or other artifacts that may rely upon specific actions by a user in order to gain execution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS0017 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command Execution </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor the execution of and command-line arguments for applications that may be used by an adversary to gain Initial Access that require user interaction. This includes compression applications, such as those for zip files, that can be used to Deobfuscate/Decode Files or Information in payloads.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS0032 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Creation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor for newly constructed containers that may use an existing, legitimate external Web service to exfiltrate data rather than their primary command and control channel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Start </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor for the activation or invocation of a container (ex: docker start or docker restart)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS0022 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">File </t>
-  </si>
-  <si>
-    <t xml:space="preserve">File Creation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-virus can potentially detect malicious documents and files that are downloaded and executed on the user's computer. Endpoint sensing or network sensing can potentially detect malicious events once the file is opened (such as a Microsoft Word document or PDF reaching out to the internet or spawning powershell.exe).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS0007 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image Creation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor for newly constructed image that may use an existing, legitimate external Web service to exfiltrate data rather than their primary command and control channel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS0030 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instance Creation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor for newly constructed instances that may use an existing, legitimate external Web service to exfiltrate data rather than their primary command and control channel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instance Start </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor for the activation or invocation of an instance (ex: instance.start within GCP Audit Logs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS0029 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Traffic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Connection Creation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor for newly constructed web-based network connections that are sent to malicious or suspicious destinations (e.g. destinations attributed to phishing campaigns). Consider correlation with process monitoring and command line to detect anomalous processes execution and command line arguments (e.g. monitor anomalies in use of files that do not normally initiate network connections or unusual connections initiated by regsvr32.exe, rundll.exe, .SCF, HTA, MSI, DLLs, or msiexec.exe).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Traffic Content </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor and analyze traffic patterns and packet inspection associated with web-based network connections that are sent to malicious or suspicious detinations (e.g. destinations attributed to phishing campaigns). Consider correlation with process monitoring and command line to detect anomalous processes execution and command line arguments (e.g. monitor anomalies in use of files that do not normally initiate network connections or unusual connections initiated by regsvr32.exe, rundll.exe, .SCF, HTA, MSI, DLLs, or msiexec.exe).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS0009 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process Creation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor for newly executed processes that may be used by an adversary to gain Initial Access that require user interaction. This includes compression applications, such as those for zip files, that can be used to Deobfuscate/Decode Files or Information in payloads.</t>
+    <t xml:space="preserve">Implant Internal Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify Authentication Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privileged Process Integrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Application Startup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-OS Boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boot Integrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Software Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic Signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1047  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regularly check component software on critical services that adversaries may target for persistence to verify the integrity of the systems and identify if unexpected changes have been made.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1045  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Signing  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure all application component binaries are signed by the correct application developers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1042  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable or Remove Feature or Program  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider disabling software components from servers when possible to prevent abuse by adversaries.[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1026  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privileged Account Management  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not allow administrator accounts that have permissions to add component software on these services to be used for day-to-day operations that may expose them to potential adversaries on unprivileged systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1024  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restrict Registry Permissions  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider using Group Policy to configure and block modifications to service and other critical server parameters in the Registry.[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1018  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Account Management  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enforce the principle of least privilege by limiting privileges of user accounts so only authorized accounts can modify and/or add server software components.[3]</t>
   </si>
 </sst>
 </file>
@@ -584,10 +614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:T158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F87" activeCellId="0" sqref="F87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I152" activeCellId="0" sqref="I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -613,34 +643,36 @@
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -669,9 +701,15 @@
       <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -681,24 +719,26 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -708,24 +748,26 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -735,24 +777,26 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -762,26 +806,30 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -791,24 +839,26 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -818,24 +868,26 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -845,24 +897,26 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -872,10 +926,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
@@ -886,11 +940,13 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -900,22 +956,24 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -929,16 +987,22 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -951,20 +1015,22 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -977,16 +1043,18 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
@@ -996,16 +1064,20 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
@@ -1014,19 +1086,21 @@
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,154 +1109,188 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="N17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="0" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>17</v>
@@ -1190,41 +1298,57 @@
       <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="0" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="0" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="4" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>17</v>
@@ -1235,229 +1359,328 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="0" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="0" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="0" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="3" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="0" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="0" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,457 +1692,1237 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="4" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="0" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" s="0" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="4" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="0" t="s">
-        <v>87</v>
+        <v>106</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="0" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="0" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>91</v>
+        <v>111</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="0" t="s">
-        <v>62</v>
+        <v>22</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="0" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="0" t="s">
-        <v>88</v>
+        <v>107</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="0" t="s">
-        <v>93</v>
+        <v>112</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="0" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F64" s="5"/>
       <c r="G64" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F66" s="5" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="0" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>96</v>
+        <v>115</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="0" t="s">
-        <v>97</v>
+        <v>68</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="0" t="s">
-        <v>98</v>
+        <v>81</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="5" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="0" t="s">
-        <v>72</v>
+        <v>88</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="0" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="0" t="s">
-        <v>100</v>
+        <v>119</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F87" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I96" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I99" s="5"/>
+      <c r="J99" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I106" s="5"/>
+      <c r="J106" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I111" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I115" s="5"/>
+      <c r="J115" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="0" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I121" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I124" s="5"/>
+      <c r="J124" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I130" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I134" s="5"/>
+      <c r="J134" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K134" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I139" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K139" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I145" s="5"/>
+      <c r="J145" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K145" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I149" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I151" s="5"/>
+      <c r="J151" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K151" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I152" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I157" s="5"/>
+      <c r="J157" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K157" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K158" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="115">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="F2:F12"/>
     <mergeCell ref="G2:G8"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="J2:J5"/>
     <mergeCell ref="D6:D9"/>
+    <mergeCell ref="J6:J11"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="D10:D15"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="J12:J14"/>
     <mergeCell ref="F13:F18"/>
     <mergeCell ref="G13:G16"/>
+    <mergeCell ref="J15:J18"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="C18:C24"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="F19:F25"/>
     <mergeCell ref="G19:G22"/>
+    <mergeCell ref="I19:I26"/>
+    <mergeCell ref="J20:J26"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="C25:C28"/>
@@ -1927,45 +2930,87 @@
     <mergeCell ref="F26:F29"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="D27:D28"/>
+    <mergeCell ref="I27:I33"/>
+    <mergeCell ref="J27:J28"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="C29:C36"/>
     <mergeCell ref="D29:D33"/>
+    <mergeCell ref="J29:J33"/>
     <mergeCell ref="F30:F38"/>
     <mergeCell ref="G30:G35"/>
     <mergeCell ref="D34:D36"/>
+    <mergeCell ref="I34:I43"/>
+    <mergeCell ref="J34:J38"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="F39:F42"/>
     <mergeCell ref="G39:G40"/>
+    <mergeCell ref="J39:J43"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="F43:F51"/>
     <mergeCell ref="G43:G46"/>
+    <mergeCell ref="I44:I45"/>
     <mergeCell ref="D45:D46"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="J46:J49"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="G47:G51"/>
     <mergeCell ref="D49:D50"/>
+    <mergeCell ref="J50:J52"/>
     <mergeCell ref="C51:C57"/>
     <mergeCell ref="D51:D55"/>
     <mergeCell ref="F52:F54"/>
     <mergeCell ref="G53:G54"/>
+    <mergeCell ref="I53:I65"/>
+    <mergeCell ref="J53:J59"/>
     <mergeCell ref="F55:F65"/>
     <mergeCell ref="G55:G63"/>
     <mergeCell ref="D56:D57"/>
+    <mergeCell ref="J60:J65"/>
     <mergeCell ref="G64:G65"/>
     <mergeCell ref="F66:F74"/>
     <mergeCell ref="G66:G69"/>
+    <mergeCell ref="I66:I72"/>
+    <mergeCell ref="J67:J72"/>
     <mergeCell ref="G70:G74"/>
+    <mergeCell ref="I73:I79"/>
+    <mergeCell ref="J73:J76"/>
     <mergeCell ref="F75:F86"/>
     <mergeCell ref="G75:G79"/>
+    <mergeCell ref="J77:J79"/>
     <mergeCell ref="G80:G86"/>
+    <mergeCell ref="I80:I95"/>
+    <mergeCell ref="J80:J89"/>
     <mergeCell ref="F87:F93"/>
     <mergeCell ref="G87:G90"/>
+    <mergeCell ref="J90:J95"/>
     <mergeCell ref="G91:G93"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="I100:I110"/>
+    <mergeCell ref="J100:J105"/>
+    <mergeCell ref="J106:J110"/>
+    <mergeCell ref="I111:I120"/>
+    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="J115:J120"/>
+    <mergeCell ref="I121:I129"/>
+    <mergeCell ref="J121:J123"/>
+    <mergeCell ref="J124:J129"/>
+    <mergeCell ref="I130:I138"/>
+    <mergeCell ref="J130:J133"/>
+    <mergeCell ref="J134:J138"/>
+    <mergeCell ref="I139:I148"/>
+    <mergeCell ref="J139:J144"/>
+    <mergeCell ref="J145:J148"/>
+    <mergeCell ref="I149:I151"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="I152:I157"/>
+    <mergeCell ref="J152:J156"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1982,262 +3027,317 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+    <row r="1" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+    <row r="3" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+    <row r="4" customFormat="false" ht="344.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+    <row r="5" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+    <row r="6" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="479.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="165.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="553.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="867.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="941.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="Application Log"/>
-    <hyperlink ref="B13" r:id="rId2" location="Application%20Log%20Content" display="Application Log Content"/>
-    <hyperlink ref="A14" r:id="rId3" display="DS0017"/>
-    <hyperlink ref="B14" r:id="rId4" display="Command"/>
-    <hyperlink ref="C14" r:id="rId5" location="Command%20Execution" display="Command Execution"/>
-    <hyperlink ref="D14" r:id="rId6" display="Deobfuscate/Decode Files or Information"/>
-    <hyperlink ref="A15" r:id="rId7" display="DS0032"/>
-    <hyperlink ref="B15" r:id="rId8" display="Container"/>
-    <hyperlink ref="C15" r:id="rId9" location="Container%20Creation" display="Container Creation"/>
-    <hyperlink ref="C16" r:id="rId10" location="Container%20Start" display="Container Start"/>
-    <hyperlink ref="A17" r:id="rId11" display="DS0022"/>
-    <hyperlink ref="B17" r:id="rId12" display="File"/>
-    <hyperlink ref="C17" r:id="rId13" location="File%20Creation" display="File Creation"/>
-    <hyperlink ref="A18" r:id="rId14" display="DS0007"/>
-    <hyperlink ref="B18" r:id="rId15" display="Image"/>
-    <hyperlink ref="C18" r:id="rId16" location="Image%20Creation" display="Image Creation"/>
-    <hyperlink ref="A19" r:id="rId17" display="DS0030"/>
-    <hyperlink ref="B19" r:id="rId18" display="Instance"/>
-    <hyperlink ref="C19" r:id="rId19" location="Instance%20Creation" display="Instance Creation"/>
-    <hyperlink ref="C20" r:id="rId20" location="Instance%20Start" display="Instance Start"/>
-    <hyperlink ref="A21" r:id="rId21" display="DS0029"/>
-    <hyperlink ref="B21" r:id="rId22" display="Network Traffic"/>
-    <hyperlink ref="C21" r:id="rId23" location="Network%20Connection%20Creation" display="Network Connection Creation"/>
-    <hyperlink ref="C22" r:id="rId24" location="Network%20Traffic%20Content" display="Network Traffic Content"/>
-    <hyperlink ref="A23" r:id="rId25" display="DS0009"/>
-    <hyperlink ref="B23" r:id="rId26" display="Process"/>
-    <hyperlink ref="C23" r:id="rId27" location="Process%20Creation" display="Process Creation"/>
-    <hyperlink ref="D23" r:id="rId28" display="Deobfuscate/Decode Files or Information"/>
+    <hyperlink ref="A1" r:id="rId1" display="M1047 "/>
+    <hyperlink ref="B1" r:id="rId2" display="Audit "/>
+    <hyperlink ref="A2" r:id="rId3" display="M1045 "/>
+    <hyperlink ref="B2" r:id="rId4" display="Code Signing "/>
+    <hyperlink ref="A3" r:id="rId5" display="M1042 "/>
+    <hyperlink ref="B3" r:id="rId6" display="Disable or Remove Feature or Program "/>
+    <hyperlink ref="C3" r:id="rId7" display="[1]"/>
+    <hyperlink ref="A4" r:id="rId8" display="M1026 "/>
+    <hyperlink ref="B4" r:id="rId9" display="Privileged Account Management "/>
+    <hyperlink ref="A5" r:id="rId10" display="M1024 "/>
+    <hyperlink ref="B5" r:id="rId11" display="Restrict Registry Permissions "/>
+    <hyperlink ref="C5" r:id="rId12" display="[2]"/>
+    <hyperlink ref="A6" r:id="rId13" display="M1018 "/>
+    <hyperlink ref="B6" r:id="rId14" display="User Account Management "/>
+    <hyperlink ref="C6" r:id="rId15" display="[3]"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Cyber Threat Dictionary/Cyber Threat Dictionary Draft.xlsx
+++ b/Cyber Threat Dictionary/Cyber Threat Dictionary Draft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="257">
   <si>
     <t xml:space="preserve">Reconnaissance</t>
   </si>
@@ -104,6 +104,12 @@
     <t xml:space="preserve">Disable or Remove Feature or Program</t>
   </si>
   <si>
+    <t xml:space="preserve">Account Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating System Configuration</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gather Victim Host Information</t>
   </si>
   <si>
@@ -125,6 +131,12 @@
     <t xml:space="preserve">Encrypt Sensitive Information</t>
   </si>
   <si>
+    <t xml:space="preserve">Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command Execution</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gather Victim Identity Information</t>
   </si>
   <si>
@@ -137,12 +149,12 @@
     <t xml:space="preserve">Code Signing</t>
   </si>
   <si>
-    <t xml:space="preserve">Operating System Configuration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Filter Network Traffic</t>
   </si>
   <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gather Victim Network Information</t>
   </si>
   <si>
@@ -158,15 +170,15 @@
     <t xml:space="preserve">Limit Access to Resource Over Network</t>
   </si>
   <si>
+    <t xml:space="preserve">Process</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gather Victim Org Information</t>
   </si>
   <si>
     <t xml:space="preserve">Establish Accounts</t>
   </si>
   <si>
-    <t xml:space="preserve">Detection</t>
-  </si>
-  <si>
     <t xml:space="preserve">Application Log</t>
   </si>
   <si>
@@ -179,15 +191,18 @@
     <t xml:space="preserve">Network Intrusion Prevention</t>
   </si>
   <si>
+    <t xml:space="preserve">Application Window Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not easy to mitigation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phishing for Information</t>
   </si>
   <si>
     <t xml:space="preserve">Obtain Capabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
     <t xml:space="preserve">Command</t>
   </si>
   <si>
@@ -212,12 +227,12 @@
     <t xml:space="preserve">Search Open Technical Databases</t>
   </si>
   <si>
-    <t xml:space="preserve">Process</t>
-  </si>
-  <si>
     <t xml:space="preserve">Group</t>
   </si>
   <si>
+    <t xml:space="preserve">Browser Bookmark Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Search Open Websites/Domains</t>
   </si>
   <si>
@@ -260,34 +275,58 @@
     <t xml:space="preserve">Account Use Policies</t>
   </si>
   <si>
+    <t xml:space="preserve">Cloud Infrastructure Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Storage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vulnerability Scanning</t>
   </si>
   <si>
     <t xml:space="preserve">Password Policies</t>
   </si>
   <si>
+    <t xml:space="preserve">Instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snapshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
     <t xml:space="preserve">External Remote Services</t>
   </si>
   <si>
     <t xml:space="preserve">Boot or Logon Autostart Execution</t>
   </si>
   <si>
-    <t xml:space="preserve">Not easy to mitigation</t>
+    <t xml:space="preserve">Cloud Service Dashboard</t>
   </si>
   <si>
     <t xml:space="preserve">Deploy Container</t>
   </si>
   <si>
+    <t xml:space="preserve">Logon Session</t>
+  </si>
+  <si>
     <t xml:space="preserve">Driver</t>
   </si>
   <si>
     <t xml:space="preserve">Credentials from Password Stores</t>
   </si>
   <si>
+    <t xml:space="preserve">Cloud Service Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kernel</t>
   </si>
   <si>
-    <t xml:space="preserve">Logon Session</t>
+    <t xml:space="preserve">Cloud Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Storage Object Discovery</t>
   </si>
   <si>
     <t xml:space="preserve">Container</t>
@@ -305,6 +344,9 @@
     <t xml:space="preserve">Build Image on Host</t>
   </si>
   <si>
+    <t xml:space="preserve">Container and Resource Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Limit Hardware Installation</t>
   </si>
   <si>
@@ -359,6 +401,9 @@
     <t xml:space="preserve">Browser Extensions</t>
   </si>
   <si>
+    <t xml:space="preserve">Domain Trust Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deobfuscate/Decode Files or Information</t>
   </si>
   <si>
@@ -377,9 +422,15 @@
     <t xml:space="preserve">Input Capture</t>
   </si>
   <si>
+    <t xml:space="preserve">File and Directory Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drive</t>
   </si>
   <si>
+    <t xml:space="preserve">Group Policy Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Supply Chain Compromise</t>
   </si>
   <si>
@@ -410,6 +461,12 @@
     <t xml:space="preserve">Privileged Process Integrity</t>
   </si>
   <si>
+    <t xml:space="preserve">Network Service Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network Intrusion Prevention</t>
+  </si>
+  <si>
     <t xml:space="preserve">Valid Accounts</t>
   </si>
   <si>
@@ -428,6 +485,9 @@
     <t xml:space="preserve">Do Not Mitigate</t>
   </si>
   <si>
+    <t xml:space="preserve">Network Share Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Software Deployment Tools</t>
   </si>
   <si>
@@ -437,15 +497,15 @@
     <t xml:space="preserve">Multi-Factor Authentication Interception</t>
   </si>
   <si>
-    <t xml:space="preserve">Volume</t>
-  </si>
-  <si>
     <t xml:space="preserve">Event Triggered Execution</t>
   </si>
   <si>
     <t xml:space="preserve">Exploitation for Defense Evasion</t>
   </si>
   <si>
+    <t xml:space="preserve">Network Sniffing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Multi-Factor Authentication Request Generation</t>
   </si>
   <si>
@@ -458,22 +518,25 @@
     <t xml:space="preserve">File and Directory Permissions Modification</t>
   </si>
   <si>
+    <t xml:space="preserve">Password Policy Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">WMI</t>
   </si>
   <si>
     <t xml:space="preserve">Exploitation for Privilege Escalation</t>
   </si>
   <si>
-    <t xml:space="preserve">Network Sniffing</t>
-  </si>
-  <si>
     <t xml:space="preserve">System Services</t>
   </si>
   <si>
+    <t xml:space="preserve">Peripheral Device Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hide Artifacts</t>
   </si>
   <si>
-    <t xml:space="preserve">Command Execution</t>
+    <t xml:space="preserve">Permission Groups Discovery</t>
   </si>
   <si>
     <t xml:space="preserve">Hijack Execution Flow</t>
@@ -488,13 +551,19 @@
     <t xml:space="preserve">Credential Access Protection</t>
   </si>
   <si>
+    <t xml:space="preserve">Process Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">User Execution</t>
   </si>
   <si>
     <t xml:space="preserve">Restrict Library Loading</t>
   </si>
   <si>
-    <t xml:space="preserve">Instance</t>
+    <t xml:space="preserve">Query Registry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote System Discovery</t>
   </si>
   <si>
     <t xml:space="preserve">Steal Application Access Token</t>
@@ -503,25 +572,37 @@
     <t xml:space="preserve">Process Injection</t>
   </si>
   <si>
+    <t xml:space="preserve">Software Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Windows Management Instrumentation</t>
   </si>
   <si>
+    <t xml:space="preserve">Firewall</t>
+  </si>
+  <si>
     <t xml:space="preserve">Steal or Forge Kerberos Tickets</t>
   </si>
   <si>
+    <t xml:space="preserve">System Information Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Location Discovery</t>
+  </si>
+  <si>
     <t xml:space="preserve">Impair Defenses</t>
   </si>
   <si>
     <t xml:space="preserve">Implant Internal Image</t>
   </si>
   <si>
-    <t xml:space="preserve">Cloud Service</t>
+    <t xml:space="preserve">System Network Configuration Discovery</t>
   </si>
   <si>
     <t xml:space="preserve">Steal Web Session Cookie</t>
   </si>
   <si>
-    <t xml:space="preserve">Firewall</t>
+    <t xml:space="preserve">System Network Connections Discovery</t>
   </si>
   <si>
     <t xml:space="preserve">Sensor Health</t>
@@ -530,12 +611,24 @@
     <t xml:space="preserve">Unsecured Credentials</t>
   </si>
   <si>
+    <t xml:space="preserve">System Owner/User Discovery </t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicator Removal on Host</t>
   </si>
   <si>
+    <t xml:space="preserve">System Service Discovery </t>
+  </si>
+  <si>
     <t xml:space="preserve">Office Application Startup</t>
   </si>
   <si>
+    <t xml:space="preserve">Virtualization/Sandbox Evasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Time Discovery </t>
+  </si>
+  <si>
     <t xml:space="preserve">Indirect Command Execution</t>
   </si>
   <si>
@@ -554,9 +647,6 @@
     <t xml:space="preserve">Server Software Component</t>
   </si>
   <si>
-    <t xml:space="preserve">Snapshot</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modify Registry</t>
   </si>
   <si>
@@ -605,103 +695,105 @@
     <t xml:space="preserve">Use Alternate Authentication Material</t>
   </si>
   <si>
-    <t xml:space="preserve">Virtualization/Sandbox Evasion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Weaken Encryption</t>
   </si>
   <si>
     <t xml:space="preserve">XSL Script Processing</t>
   </si>
   <si>
-    <t xml:space="preserve">M1015  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active Directory Configuration  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove vulnerable Group Policy Preferences.[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1047  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audit  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preemptively search for files containing passwords or other credentials and take actions to reduce the exposure risk when found.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1041  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encrypt Sensitive Information  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When possible, store keys on separate cryptographic hardware instead of on the local system. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1037  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter Network Traffic  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limit access to the Instance Metadata API using a host-based firewall such as iptables. A properly configured Web Application Firewall (WAF) may help prevent external adversaries from exploiting Server-side Request Forgery (SSRF) attacks that allow access to the Cloud Instance Metadata API.[3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1028  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating System Configuration  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are multiple methods of preventing a user's command history from being flushed to their .bash_history file, including use of the following commands:set +o history and set -o history to start logging again;unset HISTFILE being added to a user's .bash_rc file; andln -s /dev/null ~/.bash_history to write commands to /dev/nullinstead.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1027  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password Policies  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use strong passphrases for private keys to make cracking difficult. Do not store credentials within the Registry. Establish an organizational policy that prohibits password storage in files.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1026  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privileged Account Management  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If it is necessary that software must store credentials in the Registry, then ensure the associated accounts have limited permissions so they cannot be abused if obtained by an adversary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1022  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restrict File and Directory Permissions  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restrict file shares to specific directories with access only to necessary users.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1051  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Software  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apply patch KB2962486 which prevents credentials from being stored in GPPs.[4][5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1017  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Training  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure that developers and system administrators are aware of the risk associated with having plaintext passwords in software configuration files that may be left on endpoint systems or servers.</t>
+    <t xml:space="preserve">DS0026 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active Directory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active Directory Object Access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor domain controller logs for replication requests and other unscheduled activity possibly associated with DCSync. [174] [175] [176] Note: Domain controllers may not log replication requests originating from the default domain controller account. [177]. Monitor for replication requests [178] from IPs not associated with known domain controllers. [179]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS0017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command Execution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor executed commands and arguments that may attempt to dump credentials to obtain account login and credential material, normally in the form of a hash or a clear text password, from the operating system and software. Look for command-lines that invoke AuditD or the Security Accounts Manager (SAM). Remote access tools may contain built-in features or incorporate existing tools like Mimikatz. PowerShell scripts also exist that contain credential dumping functionality, such as PowerSploit's Invoke-Mimikatz module, [180] which may require additional logging features to be configured in the operating system to collect necessary information for analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS0022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">File </t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor for hash dumpers opening the Security Accounts Manager (SAM) on the local file system (%SystemRoot%/system32/config/SAM). Some hash dumpers will open the local file system as a device and parse to the SAM table to avoid file access defenses. Others will make an in-memory copy of the SAM table before reading hashes. Detection of compromised Valid Accounts in-use by adversaries may help as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS0029 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Traffic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Traffic Content </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor and analyze traffic patterns and packet inspection associated to protocol(s) that do not follow the expected protocol standards and traffic flows (e.g extraneous packets that do not belong to established flows, gratuitous or anomalous traffic patterns, anomalous syntax, or structure). Consider correlation with process monitoring and command line to detect anomalous processes execution and command line arguments associated to traffic patterns (e.g. monitor anomalies in use of files that do not normally initiate connections for respective protocol(s)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Traffic Flow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor network data for uncommon data flows. Processes utilizing the network that do not normally have network communication or have never been seen before are suspicious.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS0009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS API Execution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor for API calls that may attempt to dump credentials to obtain account login and credential material, normally in the form of a hash or a clear text password, from the operating system and software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor for unexpected processes interacting with lsass.exe.[181] Common credential dumpers such as Mimikatz access the LSA Subsystem Service (LSASS) process by opening the process, locating the LSA secrets key, and decrypting the sections in memory where credential details are stored. Credential dumpers may also use methods for reflective Process Injection to reduce potential indicators of malicious activity.
+Linux
+To obtain the passwords and hashes stored in memory, processes must open a maps file in the /proc filesystem for the process being analyzed. This file is stored under the path /proc/&lt;pid&gt;/maps, where the &lt;pid&gt; directory is the unique pid of the program being interrogated for such authentication data. The AuditD monitoring tool, which ships stock in many Linux distributions, can be used to watch for hostile processes opening this file in the proc file system, alerting on the pid, process name, and arguments of such programs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Creation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor for newly executed processes that may be indicative of credential dumping. On Windows 8.1 and Windows Server 2012 R2, monitor Windows Logs for LSASS.exe creation to verify that LSASS started as a protected process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS0024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Registry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Registry Key Access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor for the SAM registry key being accessed that may attempt to dump credentials to obtain account login and credential material, normally in the form of a hash or a clear text password, from the operating system and software.</t>
   </si>
 </sst>
 </file>
@@ -711,7 +803,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -740,6 +832,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -798,7 +896,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -831,12 +929,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -856,10 +966,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z253"/>
+  <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U117" activeCellId="0" sqref="U117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P102" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U116" activeCellId="0" sqref="U116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -911,22 +1021,24 @@
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -991,94 +1103,115 @@
       <c r="T2" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="U2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1088,192 +1221,227 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="4"/>
       <c r="N9" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
@@ -1284,63 +1452,75 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
       <c r="N11" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,44 +1529,49 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,40 +1580,49 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,36 +1631,43 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,34 +1676,39 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,35 +1716,40 @@
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,41 +1758,46 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>17</v>
@@ -1592,45 +1808,54 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>17</v>
@@ -1639,30 +1864,37 @@
         <v>24</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,167 +1906,197 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="S20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="U22" s="6"/>
+      <c r="V22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>17</v>
@@ -1842,34 +2104,41 @@
       <c r="T24" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="4" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>17</v>
@@ -1880,17 +2149,26 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="0" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>17</v>
@@ -1901,107 +2179,124 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="0" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="4" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>17</v>
@@ -2012,78 +2307,92 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="S29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
+      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2093,69 +2402,81 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2165,10 +2486,10 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>17</v>
@@ -2179,33 +2500,38 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="T33" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>17</v>
@@ -2216,127 +2542,154 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="0" t="s">
-        <v>43</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W34" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="X34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
+      </c>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="0" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="0" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="4" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R37" s="4"/>
       <c r="S37" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,58 +2701,63 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="0" t="s">
-        <v>115</v>
+        <v>130</v>
+      </c>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="0" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>17</v>
@@ -2408,131 +2766,161 @@
         <v>24</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="S39" s="7" t="s">
         <v>17</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="U42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="V42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W42" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>17</v>
@@ -2543,100 +2931,117 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W43" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="S44" s="4" t="s">
         <v>17</v>
       </c>
       <c r="T44" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,10 +3053,10 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>17</v>
@@ -2660,7 +3065,7 @@
         <v>22</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>17</v>
@@ -2669,119 +3074,138 @@
         <v>24</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="4" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O47" s="4"/>
       <c r="P47" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="0" t="s">
-        <v>128</v>
+        <v>145</v>
+      </c>
+      <c r="U48" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="V48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W48" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>17</v>
@@ -2792,67 +3216,77 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R50" s="4"/>
       <c r="S50" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T50" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="4" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="0" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>17</v>
@@ -2863,67 +3297,79 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W51" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>17</v>
@@ -2934,106 +3380,128 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="P54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="V54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W54" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="S55" s="7" t="s">
         <v>17</v>
       </c>
       <c r="T55" s="0" t="s">
-        <v>61</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W55" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="X55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -3043,53 +3511,58 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="0" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="0" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R56" s="4"/>
       <c r="S56" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>17</v>
@@ -3100,202 +3573,249 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="U57" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="V57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W57" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="S59" s="4" t="s">
         <v>17</v>
       </c>
       <c r="T59" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="0" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W60" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R62" s="4"/>
       <c r="S62" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="U62" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="V62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W62" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W63" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>17</v>
@@ -3305,223 +3825,270 @@
       </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="S65" s="6" t="s">
         <v>17</v>
       </c>
       <c r="T65" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F66" s="4" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="U66" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="V66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W66" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W67" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="R68" s="6"/>
       <c r="S68" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T68" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="O69" s="4"/>
       <c r="P69" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
       <c r="T69" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="U69" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="V69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W69" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R70" s="6" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="S70" s="6" t="s">
         <v>17</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>136</v>
+        <v>156</v>
+      </c>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W70" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
@@ -3531,49 +4098,59 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="0" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="0" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="0" t="s">
-        <v>154</v>
+        <v>175</v>
+      </c>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>17</v>
@@ -3584,55 +4161,69 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="U74" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W74" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="4" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -3642,121 +4233,150 @@
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W75" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="0" t="s">
-        <v>43</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="X76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="0" t="s">
-        <v>128</v>
+        <v>145</v>
+      </c>
+      <c r="U77" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V77" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W77" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="P78" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W78" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
@@ -3765,52 +4385,62 @@
       </c>
       <c r="R79" s="6"/>
       <c r="S79" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T79" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="0" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -3820,301 +4450,367 @@
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="U81" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="V81" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W81" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
       <c r="T82" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W82" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="0" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
       <c r="T84" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="S85" s="6" t="s">
         <v>17</v>
       </c>
       <c r="T85" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="U86" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="V86" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W86" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F87" s="4" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W87" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O88" s="4"/>
       <c r="P88" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
       <c r="T88" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="R89" s="6"/>
       <c r="S89" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T89" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="S90" s="6" t="s">
         <v>17</v>
       </c>
       <c r="T90" s="0" t="s">
-        <v>136</v>
+        <v>156</v>
+      </c>
+      <c r="U90" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="V90" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W90" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>17</v>
@@ -4125,123 +4821,156 @@
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W91" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
       <c r="T93" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="U93" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="V93" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W93" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="P94" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q94" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R94" s="6"/>
       <c r="S94" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T94" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W94" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
       <c r="T95" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I96" s="4" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>17</v>
@@ -4252,96 +4981,122 @@
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="T96" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="U96" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="V96" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W96" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O97" s="4"/>
       <c r="P97" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q97" s="0" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W97" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="S98" s="6" t="s">
         <v>17</v>
       </c>
       <c r="T98" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I99" s="4"/>
       <c r="J99" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="0" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="0" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
       <c r="T99" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
+      </c>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I100" s="4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>17</v>
@@ -4350,260 +5105,338 @@
         <v>22</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="M100" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
       <c r="Q100" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
       <c r="T100" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="U100" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="V100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W100" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
       <c r="Q101" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="R101" s="6"/>
       <c r="S101" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T101" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W101" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
       <c r="Q102" s="0" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
       <c r="T102" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="S103" s="6" t="s">
         <v>17</v>
       </c>
       <c r="T103" s="0" t="s">
-        <v>136</v>
+        <v>156</v>
+      </c>
+      <c r="U103" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="V103" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W103" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="0" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
       <c r="Q104" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
       <c r="T104" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W104" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="8" t="s">
-        <v>47</v>
+      <c r="M105" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="P105" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q105" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
       <c r="T105" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="U105" s="6"/>
+      <c r="V105" s="6"/>
+      <c r="W105" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I106" s="4"/>
       <c r="J106" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="8"/>
+      <c r="M106" s="10"/>
       <c r="N106" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
       <c r="Q106" s="0" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
       <c r="T106" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
       <c r="Q107" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
       <c r="T107" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="U107" s="6"/>
+      <c r="V107" s="6"/>
+      <c r="W107" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O108" s="4"/>
       <c r="P108" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q108" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
       <c r="T108" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+      <c r="W108" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
       <c r="Q109" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
       <c r="T109" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
       <c r="Q110" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
       <c r="T110" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="U110" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V110" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W110" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I111" s="4" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
       <c r="Q111" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
       <c r="T111" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W111" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,225 +5448,275 @@
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
       <c r="T112" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="X112" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
       <c r="Q113" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R113" s="6"/>
       <c r="S113" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T113" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="U113" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V113" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W113" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="P114" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q114" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
       <c r="T114" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W114" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I115" s="4"/>
       <c r="J115" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O115" s="4"/>
       <c r="P115" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q115" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R115" s="6"/>
       <c r="S115" s="6"/>
       <c r="T115" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
       <c r="Q116" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
       <c r="T116" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="U116" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="V116" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W116" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="P117" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q117" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
       <c r="T117" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W117" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
       <c r="Q118" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
       <c r="Q119" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O120" s="4"/>
       <c r="P120" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q120" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I121" s="4" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="J121" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
       <c r="Q122" s="0" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I124" s="4"/>
       <c r="J124" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
       <c r="Q124" s="0" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="O126" s="4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="P126" s="4" t="s">
         <v>17</v>
@@ -4846,41 +5729,41 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="0" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
       <c r="Q127" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
       <c r="Q128" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I130" s="4" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="J130" s="4" t="s">
         <v>17</v>
@@ -4891,93 +5774,93 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
       <c r="Q130" s="0" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
       <c r="Q131" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O132" s="4"/>
       <c r="P132" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q132" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
       <c r="Q133" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I134" s="4"/>
       <c r="J134" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K134" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
       <c r="Q134" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
       <c r="Q135" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
       <c r="Q136" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O137" s="4" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="P137" s="4" t="s">
         <v>17</v>
@@ -4990,17 +5873,17 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="0" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="O138" s="4"/>
       <c r="P138" s="4"/>
       <c r="Q138" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I139" s="4" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="J139" s="4" t="s">
         <v>17</v>
@@ -5010,22 +5893,22 @@
       </c>
       <c r="O139" s="4"/>
       <c r="P139" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q139" s="0" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="0" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,108 +5920,108 @@
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
       <c r="Q141" s="0" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O142" s="4" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="P142" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q142" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="O143" s="4"/>
       <c r="P143" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q143" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
       <c r="Q144" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I145" s="4"/>
       <c r="J145" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
       <c r="Q145" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O146" s="4" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="P146" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q146" s="0" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
       <c r="Q147" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
       <c r="Q148" s="0" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I149" s="4" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>17</v>
@@ -5156,79 +6039,79 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
       <c r="Q150" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I151" s="4"/>
       <c r="J151" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
       <c r="Q151" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I152" s="4" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="O152" s="4"/>
       <c r="P152" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q152" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="P153" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q153" s="0" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
       <c r="Q154" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
@@ -5240,45 +6123,45 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
       <c r="Q156" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I157" s="4"/>
-      <c r="J157" s="8" t="s">
-        <v>47</v>
+      <c r="J157" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O157" s="4"/>
       <c r="P157" s="4"/>
       <c r="Q157" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I158" s="4"/>
-      <c r="J158" s="8"/>
+      <c r="J158" s="10"/>
       <c r="K158" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O158" s="4"/>
       <c r="P158" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q158" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O159" s="4" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="P159" s="4" t="s">
         <v>17</v>
@@ -5291,350 +6174,350 @@
       <c r="O160" s="4"/>
       <c r="P160" s="4"/>
       <c r="Q160" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O161" s="4"/>
       <c r="P161" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q161" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
       <c r="Q162" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
       <c r="Q163" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O164" s="4" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="P164" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q164" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O165" s="4"/>
       <c r="P165" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q165" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O166" s="4"/>
       <c r="P166" s="4"/>
       <c r="Q166" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O167" s="4"/>
       <c r="P167" s="4"/>
       <c r="Q167" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O168" s="4" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="P168" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q168" s="0" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
       <c r="Q169" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
       <c r="Q170" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O171" s="4"/>
       <c r="P171" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q171" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O172" s="4"/>
       <c r="P172" s="4"/>
       <c r="Q172" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
       <c r="Q173" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
       <c r="Q174" s="0" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O175" s="4"/>
       <c r="P175" s="4"/>
       <c r="Q175" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
       <c r="Q176" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O177" s="4" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="P177" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q177" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
       <c r="Q178" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O179" s="4"/>
       <c r="P179" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q179" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O180" s="4"/>
       <c r="P180" s="4"/>
       <c r="Q180" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O181" s="4"/>
       <c r="P181" s="4"/>
       <c r="Q181" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O182" s="4" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="P182" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q182" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O183" s="4"/>
       <c r="P183" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q183" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O184" s="4"/>
       <c r="P184" s="4"/>
       <c r="Q184" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O185" s="4"/>
       <c r="P185" s="4"/>
       <c r="Q185" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O186" s="4" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="P186" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q186" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O187" s="4"/>
       <c r="P187" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q187" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O188" s="4"/>
       <c r="P188" s="4"/>
       <c r="Q188" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O189" s="4"/>
       <c r="P189" s="4"/>
       <c r="Q189" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O190" s="4" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="P190" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q190" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O191" s="4"/>
       <c r="P191" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q191" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O192" s="4"/>
       <c r="P192" s="4"/>
       <c r="Q192" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O193" s="4"/>
       <c r="P193" s="4"/>
       <c r="Q193" s="0" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O194" s="4" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="P194" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q194" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O195" s="4"/>
       <c r="P195" s="4"/>
       <c r="Q195" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O196" s="4"/>
       <c r="P196" s="4"/>
       <c r="Q196" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O197" s="4"/>
       <c r="P197" s="4"/>
       <c r="Q197" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O198" s="4"/>
       <c r="P198" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q198" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O199" s="4"/>
       <c r="P199" s="4"/>
       <c r="Q199" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O200" s="4"/>
       <c r="P200" s="4"/>
       <c r="Q200" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O201" s="4"/>
       <c r="P201" s="4"/>
       <c r="Q201" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O202" s="4"/>
       <c r="P202" s="4"/>
       <c r="Q202" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O203" s="4" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="P203" s="4" t="s">
         <v>17</v>
@@ -5647,104 +6530,104 @@
       <c r="O204" s="4"/>
       <c r="P204" s="4"/>
       <c r="Q204" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O205" s="4"/>
       <c r="P205" s="4"/>
       <c r="Q205" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O206" s="4"/>
       <c r="P206" s="4"/>
       <c r="Q206" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O207" s="4"/>
       <c r="P207" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q207" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O208" s="4"/>
       <c r="P208" s="4"/>
       <c r="Q208" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O209" s="4"/>
       <c r="P209" s="4"/>
       <c r="Q209" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O210" s="4"/>
       <c r="P210" s="4"/>
       <c r="Q210" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O211" s="4"/>
       <c r="P211" s="4"/>
       <c r="Q211" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O212" s="4"/>
       <c r="P212" s="4"/>
       <c r="Q212" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O213" s="4" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="P213" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q213" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O214" s="4"/>
       <c r="P214" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q214" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O215" s="4"/>
       <c r="P215" s="4"/>
       <c r="Q215" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O216" s="4"/>
       <c r="P216" s="4"/>
       <c r="Q216" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O217" s="4" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="P217" s="4" t="s">
         <v>17</v>
@@ -5764,35 +6647,35 @@
       <c r="O219" s="4"/>
       <c r="P219" s="4"/>
       <c r="Q219" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O220" s="4"/>
       <c r="P220" s="4"/>
       <c r="Q220" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O221" s="4"/>
       <c r="P221" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q221" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O222" s="4"/>
       <c r="P222" s="4"/>
       <c r="Q222" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O223" s="4" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="P223" s="4" t="s">
         <v>17</v>
@@ -5805,21 +6688,21 @@
       <c r="O224" s="4"/>
       <c r="P224" s="4"/>
       <c r="Q224" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O225" s="4"/>
       <c r="P225" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q225" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O226" s="4" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="P226" s="4" t="s">
         <v>17</v>
@@ -5832,237 +6715,238 @@
       <c r="O227" s="4"/>
       <c r="P227" s="4"/>
       <c r="Q227" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O228" s="4"/>
       <c r="P228" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q228" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O229" s="4"/>
       <c r="P229" s="4"/>
       <c r="Q229" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O230" s="4" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="P230" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q230" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O231" s="4"/>
       <c r="P231" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q231" s="0" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O232" s="4" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="P232" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q232" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O233" s="4"/>
       <c r="P233" s="4"/>
       <c r="Q233" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O234" s="4"/>
       <c r="P234" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q234" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O235" s="4"/>
       <c r="P235" s="4"/>
       <c r="Q235" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O236" s="4"/>
       <c r="P236" s="4"/>
       <c r="Q236" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O237" s="4"/>
       <c r="P237" s="4"/>
       <c r="Q237" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O238" s="4"/>
       <c r="P238" s="4"/>
       <c r="Q238" s="0" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O239" s="4" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="P239" s="4" t="s">
         <v>17</v>
       </c>
       <c r="Q239" s="0" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O240" s="4"/>
       <c r="P240" s="4"/>
       <c r="Q240" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O241" s="4"/>
       <c r="P241" s="4"/>
       <c r="Q241" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O242" s="4"/>
       <c r="P242" s="4"/>
       <c r="Q242" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O243" s="4"/>
       <c r="P243" s="4"/>
       <c r="Q243" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O244" s="4"/>
       <c r="P244" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q244" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O245" s="4"/>
       <c r="P245" s="4"/>
       <c r="Q245" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O246" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P246" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q246" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O247" s="4"/>
       <c r="P247" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q247" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O248" s="4"/>
       <c r="P248" s="4"/>
       <c r="Q248" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O249" s="4" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="P249" s="0" t="s">
         <v>17</v>
       </c>
       <c r="Q249" s="0" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O250" s="4"/>
       <c r="P250" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q250" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O251" s="8" t="s">
-        <v>196</v>
+      <c r="O251" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="P251" s="0" t="s">
         <v>17</v>
       </c>
       <c r="Q251" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O252" s="8"/>
-      <c r="P252" s="8" t="s">
-        <v>47</v>
+      <c r="O252" s="10"/>
+      <c r="P252" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="Q252" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O253" s="8"/>
-      <c r="P253" s="8"/>
+      <c r="O253" s="10"/>
+      <c r="P253" s="10"/>
       <c r="Q253" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="365">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="F2:F12"/>
@@ -6075,14 +6959,20 @@
     <mergeCell ref="P2:P7"/>
     <mergeCell ref="R2:R12"/>
     <mergeCell ref="S2:S8"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V3:V5"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="J6:J11"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V7:V8"/>
     <mergeCell ref="M8:M11"/>
     <mergeCell ref="P8:P11"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="S9:S12"/>
+    <mergeCell ref="U9:U12"/>
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="D10:D15"/>
+    <mergeCell ref="V10:V12"/>
     <mergeCell ref="I12:I18"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="L12:L17"/>
@@ -6093,8 +6983,10 @@
     <mergeCell ref="G13:G16"/>
     <mergeCell ref="R13:R19"/>
     <mergeCell ref="S13:S16"/>
+    <mergeCell ref="U13:U17"/>
     <mergeCell ref="M14:M17"/>
     <mergeCell ref="P14:P17"/>
+    <mergeCell ref="V14:V17"/>
     <mergeCell ref="J15:J18"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="G17:G18"/>
@@ -6104,22 +6996,28 @@
     <mergeCell ref="L18:L25"/>
     <mergeCell ref="O18:O24"/>
     <mergeCell ref="P18:P20"/>
+    <mergeCell ref="U18:U20"/>
     <mergeCell ref="F19:F25"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="I19:I26"/>
     <mergeCell ref="M19:M25"/>
+    <mergeCell ref="V19:V20"/>
     <mergeCell ref="J20:J26"/>
     <mergeCell ref="R20:R23"/>
     <mergeCell ref="P21:P24"/>
     <mergeCell ref="S21:S23"/>
+    <mergeCell ref="U21:U22"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="G23:G25"/>
+    <mergeCell ref="U23:U24"/>
     <mergeCell ref="R24:R28"/>
     <mergeCell ref="S24:S27"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="O25:O30"/>
     <mergeCell ref="P25:P28"/>
+    <mergeCell ref="U25:U29"/>
+    <mergeCell ref="V25:V27"/>
     <mergeCell ref="F26:F29"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="L26:L32"/>
@@ -6129,6 +7027,7 @@
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="M28:M32"/>
+    <mergeCell ref="V28:V29"/>
     <mergeCell ref="C29:C36"/>
     <mergeCell ref="D29:D33"/>
     <mergeCell ref="J29:J33"/>
@@ -6137,8 +7036,10 @@
     <mergeCell ref="S29:S30"/>
     <mergeCell ref="F30:F38"/>
     <mergeCell ref="G30:G35"/>
+    <mergeCell ref="U30:U33"/>
     <mergeCell ref="O31:O34"/>
     <mergeCell ref="S31:S32"/>
+    <mergeCell ref="V31:V33"/>
     <mergeCell ref="P32:P34"/>
     <mergeCell ref="L33:L45"/>
     <mergeCell ref="M33:M39"/>
@@ -6147,9 +7048,12 @@
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="I34:I43"/>
     <mergeCell ref="J34:J38"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="V34:V35"/>
     <mergeCell ref="O35:O38"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="P36:P38"/>
+    <mergeCell ref="V36:V38"/>
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="S37:S38"/>
@@ -6159,15 +7063,19 @@
     <mergeCell ref="O39:O45"/>
     <mergeCell ref="P39:P42"/>
     <mergeCell ref="R39:R43"/>
+    <mergeCell ref="U39:U41"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="M40:M45"/>
     <mergeCell ref="S40:S43"/>
+    <mergeCell ref="V40:V41"/>
     <mergeCell ref="G41:G42"/>
+    <mergeCell ref="U42:U47"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="F43:F51"/>
     <mergeCell ref="G43:G46"/>
     <mergeCell ref="P43:P45"/>
+    <mergeCell ref="V43:V47"/>
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="R44:R54"/>
     <mergeCell ref="S44:S49"/>
@@ -6181,6 +7089,8 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="G47:G51"/>
     <mergeCell ref="P47:P48"/>
+    <mergeCell ref="U48:U53"/>
+    <mergeCell ref="V48:V50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="M49:M50"/>
     <mergeCell ref="O49:O53"/>
@@ -6191,6 +7101,7 @@
     <mergeCell ref="D51:D55"/>
     <mergeCell ref="L51:L56"/>
     <mergeCell ref="M51:M53"/>
+    <mergeCell ref="V51:V53"/>
     <mergeCell ref="F52:F54"/>
     <mergeCell ref="P52:P53"/>
     <mergeCell ref="G53:G54"/>
@@ -6198,22 +7109,29 @@
     <mergeCell ref="J53:J59"/>
     <mergeCell ref="M54:M56"/>
     <mergeCell ref="O54:O56"/>
+    <mergeCell ref="U54:U56"/>
     <mergeCell ref="F55:F65"/>
     <mergeCell ref="G55:G63"/>
     <mergeCell ref="P55:P56"/>
     <mergeCell ref="R55:R58"/>
+    <mergeCell ref="V55:V56"/>
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="S56:S58"/>
     <mergeCell ref="L57:L63"/>
     <mergeCell ref="O57:O61"/>
     <mergeCell ref="P57:P60"/>
+    <mergeCell ref="U57:U61"/>
+    <mergeCell ref="V57:V59"/>
     <mergeCell ref="M58:M63"/>
     <mergeCell ref="R59:R64"/>
     <mergeCell ref="S59:S61"/>
     <mergeCell ref="J60:J65"/>
+    <mergeCell ref="V60:V61"/>
     <mergeCell ref="O62:O67"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="S62:S64"/>
+    <mergeCell ref="U62:U65"/>
+    <mergeCell ref="V63:V65"/>
     <mergeCell ref="G64:G65"/>
     <mergeCell ref="L64:L69"/>
     <mergeCell ref="M64:M68"/>
@@ -6223,70 +7141,98 @@
     <mergeCell ref="F66:F74"/>
     <mergeCell ref="G66:G69"/>
     <mergeCell ref="I66:I72"/>
+    <mergeCell ref="U66:U68"/>
     <mergeCell ref="J67:J72"/>
+    <mergeCell ref="V67:V68"/>
     <mergeCell ref="O68:O77"/>
     <mergeCell ref="S68:S69"/>
     <mergeCell ref="P69:P77"/>
+    <mergeCell ref="U69:U73"/>
     <mergeCell ref="G70:G74"/>
     <mergeCell ref="L70:L85"/>
     <mergeCell ref="M70:M79"/>
     <mergeCell ref="R70:R84"/>
     <mergeCell ref="S70:S78"/>
+    <mergeCell ref="V70:V73"/>
     <mergeCell ref="I73:I79"/>
     <mergeCell ref="J73:J76"/>
+    <mergeCell ref="U74:U76"/>
     <mergeCell ref="F75:F86"/>
     <mergeCell ref="G75:G79"/>
+    <mergeCell ref="V75:V76"/>
     <mergeCell ref="J77:J79"/>
+    <mergeCell ref="U77:U80"/>
     <mergeCell ref="O78:O93"/>
     <mergeCell ref="P78:P87"/>
+    <mergeCell ref="V78:V80"/>
     <mergeCell ref="S79:S84"/>
     <mergeCell ref="G80:G86"/>
     <mergeCell ref="I80:I95"/>
     <mergeCell ref="J80:J89"/>
     <mergeCell ref="M80:M85"/>
+    <mergeCell ref="U81:U85"/>
+    <mergeCell ref="V82:V85"/>
     <mergeCell ref="R85:R89"/>
     <mergeCell ref="S85:S88"/>
     <mergeCell ref="L86:L90"/>
     <mergeCell ref="M86:M87"/>
+    <mergeCell ref="U86:U89"/>
     <mergeCell ref="F87:F93"/>
     <mergeCell ref="G87:G90"/>
+    <mergeCell ref="V87:V89"/>
     <mergeCell ref="M88:M90"/>
     <mergeCell ref="P88:P93"/>
     <mergeCell ref="J90:J95"/>
     <mergeCell ref="R90:R97"/>
     <mergeCell ref="S90:S93"/>
+    <mergeCell ref="U90:U92"/>
     <mergeCell ref="G91:G93"/>
     <mergeCell ref="L91:L99"/>
     <mergeCell ref="M91:M94"/>
+    <mergeCell ref="V91:V92"/>
+    <mergeCell ref="U93:U95"/>
     <mergeCell ref="O94:O104"/>
     <mergeCell ref="P94:P96"/>
     <mergeCell ref="S94:S97"/>
+    <mergeCell ref="V94:V95"/>
     <mergeCell ref="M95:M99"/>
     <mergeCell ref="I96:I99"/>
     <mergeCell ref="J96:J98"/>
+    <mergeCell ref="U96:U99"/>
     <mergeCell ref="P97:P104"/>
+    <mergeCell ref="V97:V99"/>
     <mergeCell ref="R98:R102"/>
     <mergeCell ref="S98:S100"/>
     <mergeCell ref="I100:I110"/>
     <mergeCell ref="J100:J105"/>
     <mergeCell ref="L100:L106"/>
     <mergeCell ref="M100:M104"/>
+    <mergeCell ref="U100:U102"/>
     <mergeCell ref="S101:S102"/>
+    <mergeCell ref="V101:V102"/>
     <mergeCell ref="R103:R117"/>
     <mergeCell ref="S103:S112"/>
+    <mergeCell ref="U103:U109"/>
+    <mergeCell ref="V104:V109"/>
     <mergeCell ref="M105:M106"/>
     <mergeCell ref="O105:O113"/>
     <mergeCell ref="P105:P107"/>
     <mergeCell ref="J106:J110"/>
     <mergeCell ref="P108:P113"/>
+    <mergeCell ref="U110:U112"/>
     <mergeCell ref="I111:I120"/>
     <mergeCell ref="J111:J114"/>
+    <mergeCell ref="V111:V112"/>
     <mergeCell ref="S113:S117"/>
+    <mergeCell ref="U113:U115"/>
     <mergeCell ref="O114:O116"/>
+    <mergeCell ref="V114:V115"/>
     <mergeCell ref="J115:J120"/>
     <mergeCell ref="P115:P116"/>
+    <mergeCell ref="U116:U118"/>
     <mergeCell ref="O117:O125"/>
     <mergeCell ref="P117:P119"/>
+    <mergeCell ref="V117:V118"/>
     <mergeCell ref="P120:P125"/>
     <mergeCell ref="I121:I129"/>
     <mergeCell ref="J121:J123"/>
@@ -6377,155 +7323,167 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="494" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="568.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="9" t="s">
+    <row r="1" customFormat="false" ht="598.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>226</v>
       </c>
+      <c r="B1" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="1091" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="658.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="941.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="344.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="1582.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="389.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="389.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="M1015 "/>
-    <hyperlink ref="B1" r:id="rId2" display="Active Directory Configuration "/>
-    <hyperlink ref="C1" r:id="rId3" display="[2]"/>
-    <hyperlink ref="A2" r:id="rId4" display="M1047 "/>
-    <hyperlink ref="B2" r:id="rId5" display="Audit "/>
-    <hyperlink ref="A3" r:id="rId6" display="M1041 "/>
-    <hyperlink ref="B3" r:id="rId7" display="Encrypt Sensitive Information "/>
-    <hyperlink ref="A4" r:id="rId8" display="M1037 "/>
-    <hyperlink ref="B4" r:id="rId9" display="Filter Network Traffic "/>
-    <hyperlink ref="C4" r:id="rId10" display="[3]"/>
-    <hyperlink ref="A5" r:id="rId11" display="M1028 "/>
-    <hyperlink ref="B5" r:id="rId12" display="Operating System Configuration "/>
-    <hyperlink ref="A6" r:id="rId13" display="M1027 "/>
-    <hyperlink ref="B6" r:id="rId14" display="Password Policies "/>
-    <hyperlink ref="A7" r:id="rId15" display="M1026 "/>
-    <hyperlink ref="B7" r:id="rId16" display="Privileged Account Management "/>
-    <hyperlink ref="A8" r:id="rId17" display="M1022 "/>
-    <hyperlink ref="B8" r:id="rId18" display="Restrict File and Directory Permissions "/>
-    <hyperlink ref="A9" r:id="rId19" display="M1051 "/>
-    <hyperlink ref="B9" r:id="rId20" display="Update Software "/>
-    <hyperlink ref="A10" r:id="rId21" display="M1017 "/>
-    <hyperlink ref="B10" r:id="rId22" display="User Training "/>
+    <hyperlink ref="A1" r:id="rId1" display="DS0026"/>
+    <hyperlink ref="B1" r:id="rId2" display="Active Directory"/>
+    <hyperlink ref="C1" r:id="rId3" location="Active%20Directory%20Object%20Access" display="Active Directory Object Access"/>
+    <hyperlink ref="A2" r:id="rId4" display="DS0017"/>
+    <hyperlink ref="B2" r:id="rId5" display="Command"/>
+    <hyperlink ref="C2" r:id="rId6" location="Command%20Execution" display="Command Execution"/>
+    <hyperlink ref="A3" r:id="rId7" display="DS0022"/>
+    <hyperlink ref="B3" r:id="rId8" display="File"/>
+    <hyperlink ref="C3" r:id="rId9" location="File%20Access" display="File Access"/>
+    <hyperlink ref="D3" r:id="rId10" display="Valid Accounts"/>
+    <hyperlink ref="A4" r:id="rId11" display="DS0029"/>
+    <hyperlink ref="B4" r:id="rId12" display="Network Traffic"/>
+    <hyperlink ref="C4" r:id="rId13" location="Network%20Traffic%20Content" display="Network Traffic Content"/>
+    <hyperlink ref="C5" r:id="rId14" location="Network%20Traffic%20Flow" display="Network Traffic Flow"/>
+    <hyperlink ref="A6" r:id="rId15" display="DS0009"/>
+    <hyperlink ref="B6" r:id="rId16" display="Process"/>
+    <hyperlink ref="C6" r:id="rId17" location="OS%20API%20Execution" display="OS API Execution"/>
+    <hyperlink ref="C7" r:id="rId18" location="Process%20Access" display="Process Access"/>
+    <hyperlink ref="C8" r:id="rId19" location="Process%20Creation" display="Process Creation"/>
+    <hyperlink ref="A9" r:id="rId20" display="DS0024"/>
+    <hyperlink ref="B9" r:id="rId21" display="Windows Registry"/>
+    <hyperlink ref="C9" r:id="rId22" location="Windows%20Registry%20Key%20Access" display="Windows Registry Key Access"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Cyber Threat Dictionary/Cyber Threat Dictionary Draft.xlsx
+++ b/Cyber Threat Dictionary/Cyber Threat Dictionary Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507UAR\Desktop\Y4FinalReport\Cyber Threat Dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C8FBF-7000-40B7-B257-A43B9F273311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFF4FB4-E55F-42C1-9484-B76248A425B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23490" yWindow="1245" windowWidth="15375" windowHeight="7995" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="264">
   <si>
     <t>Reconnaissance</t>
   </si>
@@ -773,13 +773,58 @@
   </si>
   <si>
     <t>Monitor for an attempt by a user to gain access to a network or computing resource by providing web credentials (ex: Windows EID 1202) that may use alternate authentication material, such as password hashes, Kerberos tickets, and application access tokens, in order to move laterally within an environment and bypass normal system access controls.</t>
+  </si>
+  <si>
+    <t>Archive Collected Data</t>
+  </si>
+  <si>
+    <t>Audio Capture</t>
+  </si>
+  <si>
+    <t>Automated Collection</t>
+  </si>
+  <si>
+    <t>Browser Session Hijacking</t>
+  </si>
+  <si>
+    <t>Clipboard Data</t>
+  </si>
+  <si>
+    <t>Data from Cloud Storage Object</t>
+  </si>
+  <si>
+    <t>Data from Configuration Repository</t>
+  </si>
+  <si>
+    <t>Data from Information Repositories</t>
+  </si>
+  <si>
+    <t>Data from Local System</t>
+  </si>
+  <si>
+    <t>Data from Network Shared Drive</t>
+  </si>
+  <si>
+    <t>Data from Removable Media</t>
+  </si>
+  <si>
+    <t>Data Staged</t>
+  </si>
+  <si>
+    <t>Email Collection</t>
+  </si>
+  <si>
+    <t>Screen Capture</t>
+  </si>
+  <si>
+    <t>Video Capture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -812,6 +857,12 @@
       <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -893,7 +944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -964,6 +1015,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1280,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD253"/>
+  <dimension ref="A1:AF253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,14 +1365,18 @@
     <col min="21" max="21" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1365,20 +1423,22 @@
       </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -1457,8 +1517,18 @@
       <c r="Z2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="12"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -1507,8 +1577,16 @@
       <c r="Z3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -1555,8 +1633,16 @@
       <c r="Z4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
@@ -1603,8 +1689,16 @@
       <c r="Z5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
@@ -1659,8 +1753,16 @@
       <c r="Z6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>58</v>
       </c>
@@ -1709,8 +1811,16 @@
       <c r="Z7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>62</v>
       </c>
@@ -1761,8 +1871,16 @@
       <c r="Z8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>67</v>
       </c>
@@ -1815,8 +1933,18 @@
       <c r="Z9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>70</v>
       </c>
@@ -1868,8 +1996,16 @@
       <c r="Z10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>73</v>
       </c>
@@ -1914,8 +2050,16 @@
       <c r="Z11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="4"/>
@@ -1974,8 +2118,16 @@
       <c r="Z12" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="4"/>
@@ -2032,8 +2184,11 @@
       <c r="Z13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD13" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
@@ -2082,8 +2237,11 @@
       <c r="Z14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD14" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="4"/>
@@ -2132,8 +2290,11 @@
       <c r="Z15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD15" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4"/>
@@ -2178,8 +2339,11 @@
       <c r="Z16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD16" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="4"/>
@@ -2228,8 +2392,11 @@
       <c r="Z17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD17" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
@@ -2286,8 +2453,11 @@
       <c r="Z18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AD18" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="8" t="s">
@@ -2341,7 +2511,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="8" t="s">
@@ -2389,7 +2559,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="8" t="s">
@@ -2439,7 +2609,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
         <v>36</v>
@@ -2485,7 +2655,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="8" t="s">
@@ -2537,7 +2707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="8" t="s">
@@ -2585,7 +2755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>104</v>
       </c>
@@ -2639,7 +2809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" t="s">
@@ -2689,7 +2859,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
         <v>36</v>
@@ -2739,7 +2909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" t="s">
@@ -2789,7 +2959,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
         <v>115</v>
       </c>
@@ -2843,7 +3013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" t="s">
@@ -2893,7 +3063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" t="s">
@@ -2947,7 +3117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" t="s">
@@ -7662,9 +7832,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="396">
     <mergeCell ref="Y64:Y68"/>
     <mergeCell ref="X62:X68"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AA2:AA12"/>
+    <mergeCell ref="AB2:AB8"/>
+    <mergeCell ref="AB9:AB12"/>
     <mergeCell ref="Y42:Y44"/>
     <mergeCell ref="X39:X44"/>
     <mergeCell ref="Y45:Y53"/>

--- a/Cyber Threat Dictionary/Cyber Threat Dictionary Draft.xlsx
+++ b/Cyber Threat Dictionary/Cyber Threat Dictionary Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507UAR\Desktop\Y4FinalReport\Cyber Threat Dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C336F8-8307-4713-9657-1BB013E33C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F20F2F-0BAD-4A4C-AB68-74922CA46EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="290">
   <si>
     <t>Reconnaissance</t>
   </si>
@@ -866,6 +866,36 @@
   </si>
   <si>
     <t>SSL/TLS Inspection</t>
+  </si>
+  <si>
+    <t>Automated Exfiltration</t>
+  </si>
+  <si>
+    <t>Data Transfer Size Limits</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Alternative Protocol</t>
+  </si>
+  <si>
+    <t>Exfiltration Over C2 Channel</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Other Network Medium</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Physical Medium</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Web Service</t>
+  </si>
+  <si>
+    <t>Scheduled Transfer</t>
+  </si>
+  <si>
+    <t>Transfer Data to Cloud Account</t>
+  </si>
+  <si>
+    <t>FIle</t>
   </si>
 </sst>
 </file>
@@ -1409,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH253"/>
+  <dimension ref="A1:AJ253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ49" sqref="AJ49"/>
+    <sheetView tabSelected="1" topLeftCell="AD25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ40" sqref="AJ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,15 +1473,19 @@
     <col min="24" max="24" width="36" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,19 +1537,21 @@
       </c>
       <c r="AB1" s="25"/>
       <c r="AC1" s="25"/>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
       <c r="AG1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1612,9 +1648,17 @@
       <c r="AF2" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="6"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG2" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1675,8 +1719,15 @@
       <c r="AF3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1737,8 +1788,13 @@
       <c r="AF4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1795,8 +1851,13 @@
       <c r="AF5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -1863,8 +1924,13 @@
       <c r="AF6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
@@ -1927,8 +1993,17 @@
       <c r="AF7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG7" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -1991,8 +2066,15 @@
       <c r="AF8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
@@ -2061,8 +2143,17 @@
       <c r="AF9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG9" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -2126,8 +2217,13 @@
       <c r="AF10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
@@ -2186,8 +2282,13 @@
       <c r="AF11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="26"/>
@@ -2256,8 +2357,15 @@
       <c r="AF12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="26"/>
@@ -2330,8 +2438,13 @@
       <c r="AF13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="26"/>
@@ -2396,8 +2509,13 @@
       <c r="AF14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="26"/>
@@ -2456,8 +2574,17 @@
       <c r="AF15" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG15" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="26"/>
@@ -2514,8 +2641,13 @@
       <c r="AF16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="26"/>
@@ -2578,8 +2710,15 @@
       <c r="AF17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C18" s="26" t="s">
         <v>91</v>
       </c>
@@ -2652,8 +2791,13 @@
       <c r="AF18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="2" t="s">
@@ -2722,8 +2866,13 @@
       <c r="AF19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="2" t="s">
@@ -2782,8 +2931,17 @@
       <c r="AF20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG20" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="2" t="s">
@@ -2846,8 +3004,15 @@
       <c r="AF21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C22" s="26"/>
       <c r="D22" s="26" t="s">
         <v>36</v>
@@ -2906,8 +3071,13 @@
       <c r="AF22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="2" t="s">
@@ -2972,8 +3142,13 @@
       <c r="AF23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="2" t="s">
@@ -3034,8 +3209,17 @@
       <c r="AF24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG24" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C25" s="26" t="s">
         <v>104</v>
       </c>
@@ -3100,8 +3284,13 @@
       <c r="AF25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" t="s">
@@ -3164,8 +3353,13 @@
       <c r="AF26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C27" s="26"/>
       <c r="D27" s="26" t="s">
         <v>36</v>
@@ -3224,8 +3418,15 @@
       <c r="AF27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" t="s">
@@ -3290,8 +3491,13 @@
       <c r="AF28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C29" s="26" t="s">
         <v>115</v>
       </c>
@@ -3354,8 +3560,13 @@
       <c r="AF29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" t="s">
@@ -3420,8 +3631,13 @@
       <c r="AF30" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" t="s">
@@ -3490,8 +3706,17 @@
       <c r="AF31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG31" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" t="s">
@@ -3544,8 +3769,13 @@
       <c r="AF32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" t="s">
@@ -3612,8 +3842,15 @@
       <c r="AF33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C34" s="26"/>
       <c r="D34" s="26" t="s">
         <v>36</v>
@@ -3678,8 +3915,13 @@
       <c r="AF34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" t="s">
@@ -3734,8 +3976,13 @@
       <c r="AF35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" t="s">
@@ -3792,8 +4039,17 @@
       <c r="AF36" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG36" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH36" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C37" s="26" t="s">
         <v>129</v>
       </c>
@@ -3852,8 +4108,15 @@
       <c r="AF37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" t="s">
@@ -3908,8 +4171,17 @@
       <c r="AF38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG38" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH38" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" t="s">
@@ -3984,8 +4256,13 @@
       <c r="AF39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22"/>
+      <c r="AI39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C40" s="26"/>
       <c r="D40" s="26" t="s">
         <v>36</v>
@@ -4048,8 +4325,13 @@
       <c r="AF40" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" t="s">
@@ -4104,8 +4386,15 @@
       <c r="AF41" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" t="s">
@@ -4162,8 +4451,13 @@
       <c r="AF42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C43" s="26" t="s">
         <v>136</v>
       </c>
@@ -4231,7 +4525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" t="s">
@@ -4291,7 +4585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C45" s="26"/>
       <c r="D45" s="26" t="s">
         <v>36</v>
@@ -4353,7 +4647,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" t="s">
@@ -4423,7 +4717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C47" s="26" t="s">
         <v>144</v>
       </c>
@@ -4487,7 +4781,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" t="s">
@@ -8658,7 +8952,29 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="460">
+  <mergeCells count="482">
+    <mergeCell ref="AH38:AH40"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="AG38:AG42"/>
+    <mergeCell ref="AH21:AH23"/>
+    <mergeCell ref="AG20:AG23"/>
+    <mergeCell ref="AH24:AH26"/>
+    <mergeCell ref="AH27:AH30"/>
+    <mergeCell ref="AG24:AG30"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="AH33:AH35"/>
+    <mergeCell ref="AG31:AG35"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AH3:AH6"/>
+    <mergeCell ref="AG2:AG6"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AH12:AH14"/>
+    <mergeCell ref="AG9:AG14"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AH17:AH19"/>
+    <mergeCell ref="AG15:AG19"/>
     <mergeCell ref="AE34:AE36"/>
     <mergeCell ref="AD34:AD37"/>
     <mergeCell ref="AE38:AE40"/>
